--- a/22 viskoznost/obdelava.xlsx
+++ b/22 viskoznost/obdelava.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\22 viskoznost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05222795-46F4-4766-83BC-4DA58D4B1A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846792AC-C307-4DA3-9DA9-6F756434697B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5000" yWindow="3613" windowWidth="15000" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3273" yWindow="3287" windowWidth="15000" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -963,12 +963,12 @@
         <v>20</v>
       </c>
       <c r="B54">
-        <f>B47*9.81*B2/(C53*B7)</f>
-        <v>3649.2552218559281</v>
+        <f>B47/1000*9.81*B2/(C53*B7)</f>
+        <v>3.6492552218559275</v>
       </c>
       <c r="C54">
         <f>D54*B54</f>
-        <v>254.70482336207445</v>
+        <v>0.2547048233620744</v>
       </c>
       <c r="D54">
         <f>D7+E53+0.01+D2+D47</f>
